--- a/tests/output/1_Sri Vidya Yaga New Passport_output.xlsx
+++ b/tests/output/1_Sri Vidya Yaga New Passport_output.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="No_Tables_Found" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="All_Text" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Page_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Page_2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,15 +439,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>No text found in the document.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/output/1_Sri Vidya Yaga New Passport_output.xlsx
+++ b/tests/output/1_Sri Vidya Yaga New Passport_output.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Page_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Page_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -421,25 +420,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>